--- a/biology/Biologie cellulaire et moléculaire/Inactivateur/Inactivateur.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Inactivateur/Inactivateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un inactivateur (en anglais silencer) est une région d'ADN (séquence régulatrice) qui peut fixer des protéines pour diminuer la transcription de gène.  Un gène peut posséder plusieurs amplificateurs. Ils sont généralement situés à assez loin du gène (jusqu'à 100 000 nucléotides). Ou encore le gène et l'amplificateur ne sont pas forcément proches l'un de l'autre et peuvent même être sur deux chromosomes différents mais par contre le repliement de l'ADN dans le noyau leur permet une proximité physique.
 L'inactivateur est donc un ensemble de plusieurs éléments de contrôles distaux (distaux du fait qu'ils sont éloignés du gène auquel ils sont affectés) : ces éléments sont de courtes séquences en nucléotides. Ensuite des Protéines nommées facteurs de transcription spécifiques vont venir se fixer sur chaque élément de contrôle de l'inactivateur.
